--- a/excel/SampleUploadDMKhuVuc.xlsx
+++ b/excel/SampleUploadDMKhuVuc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Thesis\gen-tool\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9758182-AE65-4A6B-80EC-5D8D596C5356}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95742B5-53B4-4F2B-AC4C-A4003A085C5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7FE07DE-83C1-4D4C-99C4-7406647BBF24}"/>
   </bookViews>
@@ -31,19 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
-  <si>
-    <t>MS_KVUC</t>
-  </si>
-  <si>
-    <t>TEN_KHU_VUC</t>
-  </si>
-  <si>
-    <t>TERRITORY</t>
-  </si>
-  <si>
-    <t>MS_CHAU</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="66">
   <si>
     <t>001</t>
   </si>
@@ -220,6 +208,27 @@
   </si>
   <si>
     <t>05</t>
+  </si>
+  <si>
+    <t>Mã khu vực</t>
+  </si>
+  <si>
+    <t>Tên khu vực</t>
+  </si>
+  <si>
+    <t>Tên tiếng anh</t>
+  </si>
+  <si>
+    <t>Mã châu</t>
+  </si>
+  <si>
+    <t>Kích hoạt</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>FALSE</t>
   </si>
 </sst>
 </file>
@@ -288,14 +297,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -611,285 +628,349 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE222D8-F495-4212-B8FC-B182A8386D2D}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="E2" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="E6" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="E10" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="E15" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>62</v>
+      <c r="E19" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:E13 A17:E19 A14:D16" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>